--- a/Data/chapter_icd_10.xlsx
+++ b/Data/chapter_icd_10.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Otavio/Dropbox/Utils_Functions/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Otavio/Dropbox/AirPollution/Jelle_Meijering/Analysis/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-5200" yWindow="-17960" windowWidth="17780" windowHeight="14160" tabRatio="500"/>
+    <workbookView xWindow="11920" yWindow="800" windowWidth="17780" windowHeight="14160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -230,10 +230,10 @@
     <t>Injury, poisoning and certain other consequences of external causes</t>
   </si>
   <si>
-    <t>External causes of morbidity</t>
-  </si>
-  <si>
     <t>Factors influencing health status and contact with health services</t>
+  </si>
+  <si>
+    <t>External causes of morbidity and mortality</t>
   </si>
 </sst>
 </file>
@@ -906,7 +906,7 @@
         <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>39</v>
@@ -923,7 +923,7 @@
         <v>40</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>41</v>
